--- a/biology/Botanique/Morus_celtidifolia/Morus_celtidifolia.xlsx
+++ b/biology/Botanique/Morus_celtidifolia/Morus_celtidifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Morus celtidifolia, le mûrier à feuilles de micocoulier, est une espèce de plantes dicotylédones de la famille des Moraceae, originaire du continent américain. Ce sont des arbustes ou des arbres dioïques, de taille moyenne, à feuilles caduques.
 </t>
@@ -511,15 +523,17 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Morus celtidifolia est un arbuste ou un arbre de 4 à 15 m de haut, dioïque (rarement monoïque), aux branches glabres à pubérulentes, avec entre-nœuds courts. Les bourgeons foliaires, de 2 à 6 mm de long,  sont pubérulents à sériques.
-Les feuilles sont portées par un pétiole de 1 à 3  cm de long, glabre à pubérulent. Le limbe foliaire, de 5 à 12 cm de long sur 3 à 6 cm de large, de consistance cartacée, est de forme ovale à oblongue, obtus à tronqué à la base, à l'apex acuminé, au bord denté. La face supérieure est lisse ou rugueuse, glabre, rarement pubérulente, la face inférieure lisse à parfois scabre, glabre à rarement pubérulente. La feuille présente 4 à 6 paires de nervures secondaires, légèrement saillantes[2].
+Les feuilles sont portées par un pétiole de 1 à 3  cm de long, glabre à pubérulent. Le limbe foliaire, de 5 à 12 cm de long sur 3 à 6 cm de large, de consistance cartacée, est de forme ovale à oblongue, obtus à tronqué à la base, à l'apex acuminé, au bord denté. La face supérieure est lisse ou rugueuse, glabre, rarement pubérulente, la face inférieure lisse à parfois scabre, glabre à rarement pubérulente. La feuille présente 4 à 6 paires de nervures secondaires, légèrement saillantes.
 L'inflorescence, unisexuée ou rarement bisexuée, de 1 à 2 cm de long sur  4 à 6 mm de large, portée par un pédoncule de 1 cm de long environ, est en forme de racème ou d'épi (spiciforme).
 Les fleurs, tétramères,  peu nombreuses à nombreuses, sessiles à pédonculées, sont sous-tendues par une ou deux bractées de 1 mm de long, triangulaires à ovales, pubérulentes.
 Les fleurs mâles présentent un périanthe formé de 4 tépales verts, de 1,5 à 2,5 mm de long, pubérulents à tomenteux et ciliées, 4 étamines aux filaments de 1,6 mm de long, et aux anthères d'environ 0,4  mm de long.
-Les fleurs femelles ont des tépales verts de 1 de 2 mm de long, pubérulents et ciliés, 2 stigmates de longueur similaire[2].
-L'infrutescence de 1à 2 cm de long est composée de fruits drupacés de 2,5 à 3,0 mm de long, rouges à noirs, avec un endocarpe de 2 mm de long[2].
+Les fleurs femelles ont des tépales verts de 1 de 2 mm de long, pubérulents et ciliés, 2 stigmates de longueur similaire.
+L'infrutescence de 1à 2 cm de long est composée de fruits drupacés de 2,5 à 3,0 mm de long, rouges à noirs, avec un endocarpe de 2 mm de long.
 </t>
         </is>
       </c>
@@ -548,9 +562,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (25 juin 2019)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (25 juin 2019) :
 Morus albida Greene
 Morus betulifolia Greene
 Morus canina Greene
